--- a/data/hardL.xlsx
+++ b/data/hardL.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Real Ranking</t>
+          <t>Average Ranking</t>
         </is>
       </c>
     </row>
@@ -1413,17 +1413,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Zulu</t>
+          <t>Sejong</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05797101449275362</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="E52" t="n">
         <v>5.815384615384615</v>
@@ -1432,17 +1432,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sejong</t>
+          <t>Zulu</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D53" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="E53" t="n">
         <v>5.815384615384615</v>
